--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="19020" windowHeight="8580"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -49,6 +49,30 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>goodoldmanoj.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Remaining effort as of that day to complete the task. NOT last day effort - hours worked. So this can go up if new challenges got uncovered</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -64,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Project</t>
   </si>
@@ -173,12 +197,18 @@
   <si>
     <t>www.goodoldmanoj.com</t>
   </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,10 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -293,12 +319,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,12 +338,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -332,11 +377,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -345,37 +393,40 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$5:$O$5</c:f>
+              <c:f>Sheet1!$G$5:$Q$5</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Day 2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Day 1</c:v>
                 </c:pt>
               </c:strCache>
@@ -420,6 +471,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -429,37 +481,40 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$5:$O$5</c:f>
+              <c:f>Sheet1!$G$5:$Q$5</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Day 2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Day 1</c:v>
                 </c:pt>
               </c:strCache>
@@ -489,38 +544,50 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="59776384"/>
-        <c:axId val="59778560"/>
+        <c:smooth val="0"/>
+        <c:axId val="78058240"/>
+        <c:axId val="78059776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59776384"/>
+        <c:axId val="78058240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59778560"/>
+        <c:crossAx val="78059776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59778560"/>
+        <c:axId val="78059776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="59776384"/>
+        <c:crossAx val="78058240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -528,8 +595,11 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -858,21 +928,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="7" customFormat="1" ht="15.75">
+    <row r="1" spans="1:16384" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -17260,7 +17330,7 @@
       <c r="XFC1" s="1"/>
       <c r="XFD1" s="1"/>
     </row>
-    <row r="2" spans="1:16384" s="8" customFormat="1" ht="17.25" customHeight="1">
+    <row r="2" spans="1:16384" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -33646,18 +33716,18 @@
       <c r="XFC2" s="1"/>
       <c r="XFD2" s="1"/>
     </row>
-    <row r="3" spans="1:16384" s="7" customFormat="1" ht="23.25">
+    <row r="3" spans="1:16384" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -50034,7 +50104,7 @@
       <c r="XFC3" s="1"/>
       <c r="XFD3" s="1"/>
     </row>
-    <row r="4" spans="1:16384">
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -50055,610 +50125,614 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:16384">
+    <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:16384">
+    <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>8</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:16384">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>3</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>5</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:16384">
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>3</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>2</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:16384">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>8</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>8</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>8</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>8</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>7</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>3</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:16384">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>8</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>8</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>8</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>8</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>8</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>7</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:16384">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>9</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>9</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>9</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>9</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>9</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>9</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:16384">
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>5</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>5</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>5</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>5</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:16384">
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>7</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>7</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>7</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>7</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>7</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>7</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:16384">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>3</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>3</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>3</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>3</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:16384">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>8</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>8</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>8</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>8</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>8</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>8</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:16384">
+    <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>6</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>6</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>6</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>6</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>6</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>8</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>8</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>8</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>8</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>8</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>8</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>9</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>9</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>9</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>9</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>9</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>9</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4">
         <f>SUM(E6:E18)</f>
         <v>90</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f>E19-$E$19/10</f>
         <v>81</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <f t="shared" ref="G19:O19" si="0">F19-$E$19/10</f>
         <v>72</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -50667,48 +50741,48 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4">
         <f>SUM(E6:E18)</f>
         <v>90</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:O20" si="1">SUM(F6:F18)</f>
+      <c r="F20" s="4">
+        <f t="shared" ref="F20:J20" si="1">SUM(F6:F18)</f>
         <v>82</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -50729,7 +50803,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -50750,7 +50824,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -50771,7 +50845,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -50792,7 +50866,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -50813,7 +50887,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -50834,7 +50908,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -50855,7 +50929,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -50876,7 +50950,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -50897,7 +50971,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -50918,7 +50992,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -50939,7 +51013,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -50960,7 +51034,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -50981,7 +51055,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -51002,7 +51076,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -51023,7 +51097,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -51044,7 +51118,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -51065,7 +51139,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -51086,7 +51160,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -51107,7 +51181,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -51128,7 +51202,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -51149,7 +51223,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -51170,7 +51244,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -51191,7 +51265,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -51212,7 +51286,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -51233,7 +51307,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -51254,7 +51328,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -51275,7 +51349,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -51296,7 +51370,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -51317,7 +51391,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -51338,7 +51412,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -51359,7 +51433,7 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -51380,7 +51454,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -51401,7 +51475,7 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -51422,7 +51496,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -51443,7 +51517,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -51483,24 +51557,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Project</t>
   </si>
@@ -132,60 +132,6 @@
     <t>Day 1</t>
   </si>
   <si>
-    <t>My Project</t>
-  </si>
-  <si>
-    <t>Story 1</t>
-  </si>
-  <si>
-    <t>Story 2</t>
-  </si>
-  <si>
-    <t>Story 3</t>
-  </si>
-  <si>
-    <t>Story 4</t>
-  </si>
-  <si>
-    <t>Task 1.1</t>
-  </si>
-  <si>
-    <t>Task 1.2</t>
-  </si>
-  <si>
-    <t>Task 1.3</t>
-  </si>
-  <si>
-    <t>Task 2.1</t>
-  </si>
-  <si>
-    <t>Task 2.2</t>
-  </si>
-  <si>
-    <t>Task 3.1</t>
-  </si>
-  <si>
-    <t>Task 3.2</t>
-  </si>
-  <si>
-    <t>Task 3.3</t>
-  </si>
-  <si>
-    <t>Task 3.4</t>
-  </si>
-  <si>
-    <t>Task 4.1</t>
-  </si>
-  <si>
-    <t>Task 4.2</t>
-  </si>
-  <si>
-    <t>Task 4.3</t>
-  </si>
-  <si>
-    <t>Task 4.4</t>
-  </si>
-  <si>
     <t>Ideal - Remaining efforts in uninterrupted working hours</t>
   </si>
   <si>
@@ -202,6 +148,30 @@
   </si>
   <si>
     <t>Day 12</t>
+  </si>
+  <si>
+    <t>Hiragana</t>
+  </si>
+  <si>
+    <t>Katakana</t>
+  </si>
+  <si>
+    <t>gojoun</t>
+  </si>
+  <si>
+    <t>Belajar dasar bahasa jepang</t>
+  </si>
+  <si>
+    <t>dakuon</t>
+  </si>
+  <si>
+    <t>han-dakuon</t>
+  </si>
+  <si>
+    <t>yoon</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
 </sst>
 </file>
@@ -278,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -301,11 +271,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -321,6 +341,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -349,7 +384,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -434,39 +469,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$19:$O$19</c:f>
+              <c:f>Sheet1!$F$15:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,24 +557,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$20:$O$20</c:f>
+              <c:f>Sheet1!$F$16:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>82</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,11 +606,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78058240"/>
-        <c:axId val="78059776"/>
+        <c:axId val="156389760"/>
+        <c:axId val="156391296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78058240"/>
+        <c:axId val="156389760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,7 +619,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78059776"/>
+        <c:crossAx val="156391296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -577,7 +627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78059776"/>
+        <c:axId val="156391296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="78058240"/>
+        <c:crossAx val="156389760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -932,7 +982,7 @@
   <dimension ref="A1:XFD56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,12 +997,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="9" t="s">
-        <v>35</v>
+      <c r="E1" s="14" t="s">
+        <v>17</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -33720,14 +33770,14 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
+      <c r="D3" s="13" t="s">
+        <v>16</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -50140,10 +50190,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
@@ -50169,10 +50219,10 @@
       <c r="O5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="R5" s="1"/>
@@ -50181,16 +50231,16 @@
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4">
         <v>4</v>
@@ -50211,25 +50261,21 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -50250,25 +50296,21 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
@@ -50289,25 +50331,21 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4">
         <v>8</v>
@@ -50322,31 +50360,29 @@
         <v>7</v>
       </c>
       <c r="J9" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4">
         <v>8</v>
@@ -50361,31 +50397,27 @@
         <v>8</v>
       </c>
       <c r="J10" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>9</v>
@@ -50400,31 +50432,27 @@
         <v>9</v>
       </c>
       <c r="J11" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
         <v>5</v>
@@ -50439,43 +50467,39 @@
         <v>5</v>
       </c>
       <c r="J12" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G13" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H13" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J13" s="4">
         <v>7</v>
@@ -50484,163 +50508,201 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F14" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G14" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H14" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I14" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J14" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="K14" s="4">
+        <v>20</v>
+      </c>
+      <c r="L14" s="4">
+        <v>20</v>
+      </c>
+      <c r="M14" s="4">
+        <v>20</v>
+      </c>
+      <c r="N14" s="4">
+        <v>20</v>
+      </c>
+      <c r="O14" s="4">
+        <v>20</v>
+      </c>
+      <c r="P14" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>20</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="4">
+        <f>SUM(E6:E14)</f>
+        <v>36</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ref="F15:Q15" si="0">E15-$E$15/12</f>
+        <v>33</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
-      <c r="E15" s="4">
-        <v>8</v>
+      <c r="M15" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
-      <c r="F15" s="4">
-        <v>8</v>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
-      <c r="G15" s="4">
-        <v>8</v>
+      <c r="O15" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
-      <c r="H15" s="4">
-        <v>8</v>
+      <c r="P15" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
-      <c r="I15" s="4">
-        <v>8</v>
+      <c r="Q15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="J15" s="4">
-        <v>8</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
+      <c r="B16" s="12" t="s">
+        <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="4">
-        <v>6</v>
+        <f t="shared" ref="E16:J16" si="1">SUM(E6:E14)</f>
+        <v>36</v>
       </c>
       <c r="F16" s="4">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="G16" s="4">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>59</v>
       </c>
       <c r="H16" s="4">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="I16" s="4">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>56</v>
       </c>
       <c r="J16" s="4">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="K16" s="4">
+        <f>SUM(K4:JK6)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" ref="L16:Q16" si="2">SUM(L6:L14)</f>
+        <v>20</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>8</v>
-      </c>
-      <c r="H17" s="4">
-        <v>8</v>
-      </c>
-      <c r="I17" s="4">
-        <v>8</v>
-      </c>
-      <c r="J17" s="4">
-        <v>8</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -50648,38 +50710,20 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="4">
-        <v>9</v>
-      </c>
-      <c r="F18" s="4">
-        <v>9</v>
-      </c>
-      <c r="G18" s="4">
-        <v>9</v>
-      </c>
-      <c r="H18" s="4">
-        <v>9</v>
-      </c>
-      <c r="I18" s="4">
-        <v>9</v>
-      </c>
-      <c r="J18" s="4">
-        <v>9</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -50687,55 +50731,20 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="4">
-        <f>SUM(E6:E18)</f>
-        <v>90</v>
-      </c>
-      <c r="F19" s="4">
-        <f>E19-$E$19/10</f>
-        <v>81</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" ref="G19:O19" si="0">F19-$E$19/10</f>
-        <v>72</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -50743,40 +50752,20 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4">
-        <f>SUM(E6:E18)</f>
-        <v>90</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" ref="F20:J20" si="1">SUM(F6:F18)</f>
-        <v>82</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -51541,8 +51530,8 @@
   </sheetData>
   <sheetProtection password="EF56" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="E1:H1"/>
   </mergeCells>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BambangYusuf\Documents\github\TKPPL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="19020" windowHeight="8580"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>mkg</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -377,6 +382,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -384,7 +392,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -426,6 +434,28 @@
           <c:tx>
             <c:v>Ideal burndown</c:v>
           </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$G$5:$Q$5</c:f>
@@ -514,6 +544,28 @@
           <c:tx>
             <c:v>Actual burndown</c:v>
           </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$G$5:$Q$5</c:f>
@@ -606,20 +658,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156389760"/>
-        <c:axId val="156391296"/>
+        <c:axId val="256855016"/>
+        <c:axId val="256861288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156389760"/>
+        <c:axId val="256855016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156391296"/>
+        <c:crossAx val="256861288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -627,7 +680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156391296"/>
+        <c:axId val="256861288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="156389760"/>
+        <c:crossAx val="256855016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -981,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -620,10 +620,10 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>27</c:v>
@@ -658,11 +658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="256855016"/>
-        <c:axId val="256861288"/>
+        <c:axId val="259158424"/>
+        <c:axId val="259159208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256855016"/>
+        <c:axId val="259158424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,7 +672,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256861288"/>
+        <c:crossAx val="259159208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -680,7 +680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256861288"/>
+        <c:axId val="259159208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="256855016"/>
+        <c:crossAx val="259158424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50307,9 +50307,7 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -50342,9 +50340,7 @@
       <c r="I7" s="4">
         <v>2</v>
       </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -50377,9 +50373,7 @@
       <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -50410,11 +50404,9 @@
         <v>8</v>
       </c>
       <c r="I9" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -50449,9 +50441,7 @@
       <c r="I10" s="4">
         <v>8</v>
       </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -50484,9 +50474,7 @@
       <c r="I11" s="4">
         <v>9</v>
       </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -50519,9 +50507,7 @@
       <c r="I12" s="4">
         <v>5</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
+      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -50549,7 +50535,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4">
         <v>3</v>
@@ -50699,11 +50685,11 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="1"/>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BambangYusuf\Documents\github\TKPPL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="19020" windowHeight="8580"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -26,7 +21,7 @@
     <author>mkg</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +387,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -504,34 +499,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,34 +609,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,11 +653,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259158424"/>
-        <c:axId val="259159208"/>
+        <c:axId val="146633472"/>
+        <c:axId val="146635008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259158424"/>
+        <c:axId val="146633472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,7 +667,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259159208"/>
+        <c:crossAx val="146635008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -680,7 +675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259159208"/>
+        <c:axId val="146635008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="259158424"/>
+        <c:crossAx val="146633472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1034,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50293,25 +50288,35 @@
         <v>22</v>
       </c>
       <c r="E6" s="4">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
-        <v>4</v>
+      <c r="K6" s="4">
+        <v>2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="N6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
       <c r="O6" s="7"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -50326,25 +50331,35 @@
         <v>24</v>
       </c>
       <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
-        <v>2</v>
+      <c r="M7" s="4">
+        <v>0</v>
       </c>
-      <c r="G7" s="4">
-        <v>3</v>
+      <c r="N7" s="4">
+        <v>0</v>
       </c>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
       <c r="O7" s="7"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -50359,13 +50374,13 @@
         <v>25</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4">
         <v>2</v>
@@ -50373,11 +50388,21 @@
       <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
       <c r="O8" s="7"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -50392,25 +50417,35 @@
         <v>26</v>
       </c>
       <c r="E9" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="4">
         <v>6</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -50427,7 +50462,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F10" s="4">
         <v>8</v>
@@ -50436,16 +50471,26 @@
         <v>8</v>
       </c>
       <c r="H10" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
       <c r="O10" s="7"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -50460,25 +50505,35 @@
         <v>24</v>
       </c>
       <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
-        <v>9</v>
+      <c r="M11" s="4">
+        <v>0</v>
       </c>
-      <c r="G11" s="4">
-        <v>9</v>
+      <c r="N11" s="4">
+        <v>0</v>
       </c>
-      <c r="H11" s="4">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4">
-        <v>9</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
       <c r="O11" s="7"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -50493,25 +50548,35 @@
         <v>25</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -50526,27 +50591,35 @@
         <v>26</v>
       </c>
       <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4">
+        <v>6</v>
+      </c>
+      <c r="J13" s="4">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4">
+        <v>4</v>
+      </c>
+      <c r="L13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="4">
-        <v>3</v>
+      <c r="M13" s="4">
+        <v>2</v>
       </c>
-      <c r="G13" s="4">
-        <v>3</v>
+      <c r="N13" s="4">
+        <v>0</v>
       </c>
-      <c r="H13" s="4">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
-        <v>3</v>
-      </c>
-      <c r="J13" s="4">
-        <v>7</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
       <c r="O13" s="7"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -50590,15 +50663,9 @@
       <c r="N14" s="4">
         <v>20</v>
       </c>
-      <c r="O14" s="4">
-        <v>20</v>
-      </c>
-      <c r="P14" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>20</v>
-      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
@@ -50611,51 +50678,51 @@
       <c r="D15" s="12"/>
       <c r="E15" s="4">
         <f>SUM(E6:E14)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ref="F15:Q15" si="0">E15-$E$15/12</f>
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O15" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P15" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="11">
         <f t="shared" si="0"/>
@@ -50673,39 +50740,39 @@
       <c r="D16" s="12"/>
       <c r="E16" s="4">
         <f t="shared" ref="E16:J16" si="1">SUM(E6:E14)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K16" s="4">
-        <f>SUM(K4:JK6)</f>
-        <v>0</v>
+        <f>SUM(K4:K14)</f>
+        <v>42</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" ref="L16:Q16" si="2">SUM(L6:L14)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="2"/>
@@ -50713,15 +50780,15 @@
       </c>
       <c r="O16" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="19020" windowHeight="8580"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -177,8 +177,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,17 +386,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -405,7 +395,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="id-ID"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -415,14 +405,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -437,13 +424,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="id-ID"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -531,7 +522,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -547,13 +537,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="id-ID"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -636,56 +630,54 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="146633472"/>
-        <c:axId val="146635008"/>
+        <c:axId val="77633792"/>
+        <c:axId val="77643776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146633472"/>
+        <c:axId val="77633792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146635008"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="id-ID"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77643776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146635008"/>
+        <c:axId val="77643776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="146633472"/>
+        <c:crossAx val="77633792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -693,15 +685,23 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="id-ID"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1026,21 +1026,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16384" s="5" customFormat="1" ht="15.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -17428,7 +17428,7 @@
       <c r="XFC1" s="1"/>
       <c r="XFD1" s="1"/>
     </row>
-    <row r="2" spans="1:16384" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16384" s="6" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -33814,7 +33814,7 @@
       <c r="XFC2" s="1"/>
       <c r="XFD2" s="1"/>
     </row>
-    <row r="3" spans="1:16384" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16384" s="5" customFormat="1" ht="23.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -50202,7 +50202,7 @@
       <c r="XFC3" s="1"/>
       <c r="XFD3" s="1"/>
     </row>
-    <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16384">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -50223,7 +50223,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16384">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -50276,7 +50276,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16384">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -50317,13 +50317,15 @@
       <c r="N6" s="4">
         <v>0</v>
       </c>
-      <c r="O6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16384">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -50360,13 +50362,15 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16384">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -50403,13 +50407,15 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16384">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -50446,13 +50452,15 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16384">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -50491,13 +50499,15 @@
       <c r="N10" s="4">
         <v>0</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16384">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -50534,13 +50544,15 @@
       <c r="N11" s="4">
         <v>0</v>
       </c>
-      <c r="O11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16384">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -50577,13 +50589,15 @@
       <c r="N12" s="4">
         <v>0</v>
       </c>
-      <c r="O12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16384">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -50620,13 +50634,15 @@
       <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="O13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16384">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -50663,13 +50679,15 @@
       <c r="N14" s="4">
         <v>20</v>
       </c>
-      <c r="O14" s="4"/>
+      <c r="O14" s="4">
+        <v>15</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16384">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
@@ -50731,7 +50749,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16384">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
         <v>15</v>
@@ -50780,7 +50798,7 @@
       </c>
       <c r="O16" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="2"/>
@@ -50793,7 +50811,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -50814,7 +50832,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -50835,7 +50853,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -50856,7 +50874,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -50877,7 +50895,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -50898,7 +50916,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -50919,7 +50937,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -50940,7 +50958,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -50961,7 +50979,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -50982,7 +51000,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -51003,7 +51021,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -51024,7 +51042,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -51045,7 +51063,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -51066,7 +51084,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -51087,7 +51105,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -51108,7 +51126,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -51129,7 +51147,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -51150,7 +51168,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -51171,7 +51189,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -51192,7 +51210,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -51213,7 +51231,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -51234,7 +51252,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -51255,7 +51273,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -51276,7 +51294,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -51297,7 +51315,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -51318,7 +51336,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -51339,7 +51357,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -51360,7 +51378,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -51381,7 +51399,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -51402,7 +51420,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -51423,7 +51441,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -51444,7 +51462,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -51465,7 +51483,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -51486,7 +51504,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -51507,7 +51525,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -51528,7 +51546,7 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -51549,7 +51567,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -51570,7 +51588,7 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -51591,7 +51609,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -51612,7 +51630,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -51652,24 +51670,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -640,11 +640,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77633792"/>
-        <c:axId val="77643776"/>
+        <c:axId val="77957376"/>
+        <c:axId val="77967360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77633792"/>
+        <c:axId val="77957376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,14 +662,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77643776"/>
+        <c:crossAx val="77967360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77643776"/>
+        <c:axId val="77967360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +677,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77633792"/>
+        <c:crossAx val="77957376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:XFD56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50320,7 +50320,9 @@
       <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="4"/>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -50365,7 +50367,9 @@
       <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="4"/>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -50410,7 +50414,9 @@
       <c r="O8" s="7">
         <v>0</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -50455,7 +50461,9 @@
       <c r="O9" s="7">
         <v>0</v>
       </c>
-      <c r="P9" s="4"/>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -50502,7 +50510,9 @@
       <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -50547,7 +50557,9 @@
       <c r="O11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -50592,7 +50604,9 @@
       <c r="O12" s="7">
         <v>0</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -50637,7 +50651,9 @@
       <c r="O13" s="7">
         <v>0</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -50682,7 +50698,9 @@
       <c r="O14" s="4">
         <v>15</v>
       </c>
-      <c r="P14" s="4"/>
+      <c r="P14" s="4">
+        <v>10</v>
+      </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -50802,7 +50820,7 @@
       </c>
       <c r="P16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="2"/>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -640,11 +640,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77957376"/>
-        <c:axId val="77967360"/>
+        <c:axId val="77633792"/>
+        <c:axId val="77643776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77957376"/>
+        <c:axId val="77633792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,14 +662,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77967360"/>
+        <c:crossAx val="77643776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77967360"/>
+        <c:axId val="77643776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +677,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77957376"/>
+        <c:crossAx val="77633792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:XFD56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50320,9 +50320,7 @@
       <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
+      <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -50367,9 +50365,7 @@
       <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
+      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -50414,9 +50410,7 @@
       <c r="O8" s="7">
         <v>0</v>
       </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
+      <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -50461,9 +50455,7 @@
       <c r="O9" s="7">
         <v>0</v>
       </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
+      <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -50510,9 +50502,7 @@
       <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
+      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -50557,9 +50547,7 @@
       <c r="O11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
+      <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -50604,9 +50592,7 @@
       <c r="O12" s="7">
         <v>0</v>
       </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
+      <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -50651,9 +50637,7 @@
       <c r="O13" s="7">
         <v>0</v>
       </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
+      <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -50698,9 +50682,7 @@
       <c r="O14" s="4">
         <v>15</v>
       </c>
-      <c r="P14" s="4">
-        <v>10</v>
-      </c>
+      <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -50820,7 +50802,7 @@
       </c>
       <c r="P16" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="2"/>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -640,11 +640,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77633792"/>
-        <c:axId val="77643776"/>
+        <c:axId val="78093696"/>
+        <c:axId val="78103680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77633792"/>
+        <c:axId val="78093696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,14 +662,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77643776"/>
+        <c:crossAx val="78103680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77643776"/>
+        <c:axId val="78103680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +677,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77633792"/>
+        <c:crossAx val="78093696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -701,7 +701,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:XFD56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50320,7 +50320,9 @@
       <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="4"/>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -50365,7 +50367,9 @@
       <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="4"/>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -50410,7 +50414,9 @@
       <c r="O8" s="7">
         <v>0</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -50455,7 +50461,9 @@
       <c r="O9" s="7">
         <v>0</v>
       </c>
-      <c r="P9" s="4"/>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -50502,7 +50510,9 @@
       <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -50547,7 +50557,9 @@
       <c r="O11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -50592,7 +50604,9 @@
       <c r="O12" s="7">
         <v>0</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -50637,7 +50651,9 @@
       <c r="O13" s="7">
         <v>0</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -50682,7 +50698,9 @@
       <c r="O14" s="4">
         <v>15</v>
       </c>
-      <c r="P14" s="4"/>
+      <c r="P14" s="4">
+        <v>10</v>
+      </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -50802,7 +50820,7 @@
       </c>
       <c r="P16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="2"/>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -640,11 +640,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="78093696"/>
-        <c:axId val="78103680"/>
+        <c:axId val="80326016"/>
+        <c:axId val="80331904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78093696"/>
+        <c:axId val="80326016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,14 +662,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78103680"/>
+        <c:crossAx val="80331904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78103680"/>
+        <c:axId val="80331904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +677,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="78093696"/>
+        <c:crossAx val="80326016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -701,7 +701,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50323,7 +50323,9 @@
       <c r="P6" s="4">
         <v>0</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
@@ -50370,7 +50372,9 @@
       <c r="P7" s="4">
         <v>0</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
@@ -50417,7 +50421,9 @@
       <c r="P8" s="4">
         <v>0</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
@@ -50464,7 +50470,9 @@
       <c r="P9" s="4">
         <v>0</v>
       </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
@@ -50513,7 +50521,9 @@
       <c r="P10" s="4">
         <v>0</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
@@ -50560,7 +50570,9 @@
       <c r="P11" s="4">
         <v>0</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
@@ -50607,7 +50619,9 @@
       <c r="P12" s="4">
         <v>0</v>
       </c>
-      <c r="Q12" s="4"/>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
@@ -50654,7 +50668,9 @@
       <c r="P13" s="4">
         <v>0</v>
       </c>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
@@ -50701,7 +50717,9 @@
       <c r="P14" s="4">
         <v>10</v>
       </c>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="4">
+        <v>5</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
@@ -50824,7 +50842,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>

--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="19020" windowHeight="8580"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Project</t>
   </si>
@@ -173,12 +173,21 @@
   <si>
     <t>example</t>
   </si>
+  <si>
+    <t>Kelompok</t>
+  </si>
+  <si>
+    <t>NYUU</t>
+  </si>
+  <si>
+    <t>TI-A PG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +219,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -325,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -367,6 +384,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,7 +406,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -405,11 +435,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -431,10 +464,16 @@
                 <a:pPr>
                   <a:defRPr lang="id-ID"/>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="id-ID"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -444,40 +483,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$5:$Q$5</c:f>
+              <c:f>Sheet1!$F$5:$Q$5</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Day 12</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Day 11</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Day 2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Day 1</c:v>
                 </c:pt>
               </c:strCache>
@@ -485,10 +527,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$15:$O$15</c:f>
+              <c:f>Sheet1!$F$15:$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>55</c:v>
                 </c:pt>
@@ -519,9 +561,16 @@
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -544,10 +593,16 @@
                 <a:pPr>
                   <a:defRPr lang="id-ID"/>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="id-ID"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -557,40 +612,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$5:$Q$5</c:f>
+              <c:f>Sheet1!$F$5:$Q$5</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Day 12</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Day 11</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Day 2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Day 1</c:v>
                 </c:pt>
               </c:strCache>
@@ -598,10 +656,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$16:$O$16</c:f>
+              <c:f>Sheet1!$F$16:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
                 </c:pt>
@@ -632,25 +690,40 @@
                 <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80326016"/>
-        <c:axId val="80331904"/>
+        <c:smooth val="0"/>
+        <c:axId val="150893312"/>
+        <c:axId val="150894848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80326016"/>
+        <c:axId val="150893312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -659,25 +732,28 @@
             <a:pPr>
               <a:defRPr lang="id-ID"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80331904"/>
+        <c:crossAx val="150894848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80331904"/>
+        <c:axId val="150894848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="80326016"/>
+        <c:crossAx val="150893312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -685,6 +761,7 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -692,12 +769,13 @@
           <a:pPr>
             <a:defRPr lang="id-ID"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -712,15 +790,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1026,23 +1104,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="5" customFormat="1" ht="15.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:16384" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="14" t="s">
@@ -17428,14 +17511,18 @@
       <c r="XFC1" s="1"/>
       <c r="XFD1" s="1"/>
     </row>
-    <row r="2" spans="1:16384" s="6" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:16384" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="15"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -33814,7 +33901,7 @@
       <c r="XFC2" s="1"/>
       <c r="XFD2" s="1"/>
     </row>
-    <row r="3" spans="1:16384" s="5" customFormat="1" ht="23.25">
+    <row r="3" spans="1:16384" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -50202,7 +50289,7 @@
       <c r="XFC3" s="1"/>
       <c r="XFD3" s="1"/>
     </row>
-    <row r="4" spans="1:16384">
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -50223,7 +50310,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:16384">
+    <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -50276,7 +50363,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:16384">
+    <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -50329,7 +50416,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:16384">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -50378,7 +50465,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:16384">
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -50427,7 +50514,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:16384">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -50476,7 +50563,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:16384">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -50527,7 +50614,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:16384">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -50576,7 +50663,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:16384">
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -50625,7 +50712,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:16384">
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -50674,7 +50761,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:16384">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -50718,12 +50805,12 @@
         <v>10</v>
       </c>
       <c r="Q14" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:16384">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
@@ -50785,7 +50872,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:16384">
+    <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
         <v>15</v>
@@ -50842,12 +50929,12 @@
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -50868,7 +50955,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -50889,7 +50976,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -50910,7 +50997,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -50931,7 +51018,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -50952,7 +51039,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -50973,7 +51060,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -50994,7 +51081,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -51015,7 +51102,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -51036,7 +51123,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -51057,7 +51144,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -51078,7 +51165,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -51099,7 +51186,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -51120,7 +51207,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -51141,7 +51228,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -51162,7 +51249,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -51183,7 +51270,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -51204,7 +51291,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -51225,7 +51312,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -51246,7 +51333,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -51267,7 +51354,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -51288,7 +51375,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -51309,7 +51396,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -51330,7 +51417,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -51351,7 +51438,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -51372,7 +51459,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -51393,7 +51480,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -51414,7 +51501,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -51435,7 +51522,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -51456,7 +51543,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -51477,7 +51564,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -51498,7 +51585,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -51519,7 +51606,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -51540,7 +51627,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -51561,7 +51648,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -51582,7 +51669,7 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -51603,7 +51690,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -51624,7 +51711,7 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -51645,7 +51732,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -51666,7 +51753,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -51706,24 +51793,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
